--- a/Aplicacion movil buses.xlsx
+++ b/Aplicacion movil buses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\SEPTIMO SEMESTRE ING.SISTEMAS\Ing. del software y requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\SEPTIMO SEMESTRE ING.SISTEMAS\Ing. del software y requerimientos\App bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99C5038-ADB2-4563-85D0-56D6B8D79DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611D30A-942F-421C-9845-939E7947CC7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E04593A-8522-459A-AA1A-2FBDA4457A27}"/>
+    <workbookView xWindow="3516" yWindow="2580" windowWidth="17280" windowHeight="9420" xr2:uid="{7E04593A-8522-459A-AA1A-2FBDA4457A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>CURSO</t>
   </si>
@@ -118,14 +118,37 @@
   </si>
   <si>
     <t>USUARIOS</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario solicitar atenciones en el viaje</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario visualizar el tiempo que dura el recorrido del viaje</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario hacer un transbordo</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario una calificación de su satisfacción</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir un inventario de los artículos a bordo del transporte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,27 +209,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -594,73 +621,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1672182-C7AE-4AB9-B539-761295D31D7C}">
-  <dimension ref="B4:L39"/>
+  <dimension ref="B4:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -675,24 +702,24 @@
       <c r="I12" s="5"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -800,161 +827,204 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B22:I22"/>
+  <mergeCells count="33">
+    <mergeCell ref="B44:I44"/>
     <mergeCell ref="I4:L5"/>
     <mergeCell ref="I6:L7"/>
     <mergeCell ref="I8:L9"/>
@@ -962,6 +1032,31 @@
     <mergeCell ref="G4:H5"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="G8:H9"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
